--- a/auto_heal/Sheet1.xlsx
+++ b/auto_heal/Sheet1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>f9sgRCN4skIefNxgBBrv5Ah494XEdCt06S0ZfbqN7OfKKm5w3x</t>
-  </si>
-  <si>
-    <t>shubhamr</t>
   </si>
 </sst>
 </file>
@@ -327,12 +324,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
